--- a/실무_엑셀_예제_파일/Chapter04/04-003.xlsx
+++ b/실무_엑셀_예제_파일/Chapter04/04-003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csson\Documents\00. 진행\엑셀\예제 파일\Chapter04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D53AA90-D59F-44B9-98B7-7C4E12BBCCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C872B-6348-4663-9459-AABC9D80F986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF00486B-6D3C-4336-9A2A-AC34C9C6B9B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CF00486B-6D3C-4336-9A2A-AC34C9C6B9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -261,22 +268,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,9 +296,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,6 +316,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,42 +651,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B175A885-CE2C-45EE-90EF-A36C465C0E7C}">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="8" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -683,22 +701,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="2" t="str">
         <f>IFERROR(VLOOKUP(B5,$H$4:$J$12,2,0),"-")</f>
         <v>오라면</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="19">
         <v>50</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>IFERROR(VLOOKUP(B5,$H$4:$J$12,3,0),"-")</f>
         <v>830</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f>IFERROR(E5*D5,0)</f>
         <v>41500</v>
       </c>
@@ -712,22 +730,22 @@
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" ref="C6:C13" si="0">IFERROR(VLOOKUP(B6,$H$4:$J$12,2,0),"-")</f>
         <v>진라면</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="20">
         <v>20</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <f t="shared" ref="E6:E13" si="1">IFERROR(VLOOKUP(B6,$H$4:$J$12,3,0),"-")</f>
         <v>780</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f t="shared" ref="F6:F13" si="2">IFERROR(E6*D6,0)</f>
         <v>15600</v>
       </c>
@@ -741,22 +759,22 @@
         <v>830</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>진짬뽕</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="20">
         <v>50</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
         <v>920</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>46000</v>
       </c>
@@ -770,22 +788,22 @@
         <v>920</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>진짜장</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="20">
         <v>25</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>920</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
@@ -799,22 +817,22 @@
         <v>920</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>참깨라면</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="20">
         <v>25</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>26250</v>
       </c>
@@ -828,22 +846,22 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>튀김우동</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="20">
         <v>35</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>1020</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
         <v>35700</v>
       </c>
@@ -857,22 +875,22 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>김치라면</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="20">
         <v>25</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>21250</v>
       </c>
@@ -886,22 +904,22 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>리얼치즈</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="20">
         <v>35</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>970</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>33950</v>
       </c>
@@ -915,39 +933,39 @@
         <v>970</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>오라면</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="21">
         <v>35</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <f t="shared" si="1"/>
         <v>830</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <f t="shared" si="2"/>
         <v>29050</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15">
+      <c r="C14" s="15"/>
+      <c r="D14" s="12">
         <f>SUM(D5:D13)</f>
         <v>300</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <f>SUM(F5:F13)</f>
         <v>272300</v>
       </c>
